--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3693052586537</v>
+        <v>17.586354</v>
       </c>
       <c r="H2">
-        <v>10.3693052586537</v>
+        <v>52.759062</v>
       </c>
       <c r="I2">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J2">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.57419367108829</v>
+        <v>0.07610666666666667</v>
       </c>
       <c r="N2">
-        <v>1.57419367108829</v>
+        <v>0.22832</v>
       </c>
       <c r="O2">
-        <v>0.9311646781434409</v>
+        <v>0.04153709822108353</v>
       </c>
       <c r="P2">
-        <v>0.9311646781434409</v>
+        <v>0.04153709822108354</v>
       </c>
       <c r="Q2">
-        <v>16.32329471175518</v>
+        <v>1.33843878176</v>
       </c>
       <c r="R2">
-        <v>16.32329471175518</v>
+        <v>12.04594903584</v>
       </c>
       <c r="S2">
-        <v>0.1314414540750629</v>
+        <v>0.00904779900579266</v>
       </c>
       <c r="T2">
-        <v>0.1314414540750629</v>
+        <v>0.009047799005792664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3693052586537</v>
+        <v>17.586354</v>
       </c>
       <c r="H3">
-        <v>10.3693052586537</v>
+        <v>52.759062</v>
       </c>
       <c r="I3">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J3">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.116370530967701</v>
+        <v>1.639501</v>
       </c>
       <c r="N3">
-        <v>0.116370530967701</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O3">
-        <v>0.06883532185655901</v>
+        <v>0.8947982752789682</v>
       </c>
       <c r="P3">
-        <v>0.06883532185655901</v>
+        <v>0.8947982752789683</v>
       </c>
       <c r="Q3">
-        <v>1.206681558715705</v>
+        <v>28.832844969354</v>
       </c>
       <c r="R3">
-        <v>1.206681558715705</v>
+        <v>259.495604724186</v>
       </c>
       <c r="S3">
-        <v>0.009716664526612665</v>
+        <v>0.1949090160887711</v>
       </c>
       <c r="T3">
-        <v>0.009716664526612665</v>
+        <v>0.1949090160887711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.2285582503265</v>
+        <v>17.586354</v>
       </c>
       <c r="H4">
-        <v>52.2285582503265</v>
+        <v>52.759062</v>
       </c>
       <c r="I4">
-        <v>0.7109912222654843</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J4">
-        <v>0.7109912222654843</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.57419367108829</v>
+        <v>0.11665</v>
       </c>
       <c r="N4">
-        <v>1.57419367108829</v>
+        <v>0.34995</v>
       </c>
       <c r="O4">
-        <v>0.9311646781434409</v>
+        <v>0.06366462649994824</v>
       </c>
       <c r="P4">
-        <v>0.9311646781434409</v>
+        <v>0.06366462649994825</v>
       </c>
       <c r="Q4">
-        <v>82.21786584773007</v>
+        <v>2.0514481941</v>
       </c>
       <c r="R4">
-        <v>82.21786584773007</v>
+        <v>18.4630337469</v>
       </c>
       <c r="S4">
-        <v>0.6620499126436513</v>
+        <v>0.01386771751084943</v>
       </c>
       <c r="T4">
-        <v>0.6620499126436513</v>
+        <v>0.01386771751084943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.2285582503265</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H5">
-        <v>52.2285582503265</v>
+        <v>156.811283</v>
       </c>
       <c r="I5">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J5">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.116370530967701</v>
+        <v>0.07610666666666667</v>
       </c>
       <c r="N5">
-        <v>0.116370530967701</v>
+        <v>0.22832</v>
       </c>
       <c r="O5">
-        <v>0.06883532185655901</v>
+        <v>0.04153709822108353</v>
       </c>
       <c r="P5">
-        <v>0.06883532185655901</v>
+        <v>0.04153709822108354</v>
       </c>
       <c r="Q5">
-        <v>6.077865055267996</v>
+        <v>3.978128014951111</v>
       </c>
       <c r="R5">
-        <v>6.077865055267996</v>
+        <v>35.80315213456</v>
       </c>
       <c r="S5">
-        <v>0.04894130962183289</v>
+        <v>0.02689200521465813</v>
       </c>
       <c r="T5">
-        <v>0.04894130962183289</v>
+        <v>0.02689200521465814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.8609312197462</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H6">
-        <v>10.8609312197462</v>
+        <v>156.811283</v>
       </c>
       <c r="I6">
-        <v>0.1478506591328401</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J6">
-        <v>0.1478506591328401</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.57419367108829</v>
+        <v>1.639501</v>
       </c>
       <c r="N6">
-        <v>1.57419367108829</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O6">
-        <v>0.9311646781434409</v>
+        <v>0.8947982752789682</v>
       </c>
       <c r="P6">
-        <v>0.9311646781434409</v>
+        <v>0.8947982752789683</v>
       </c>
       <c r="Q6">
-        <v>17.09720918824969</v>
+        <v>85.69741842992767</v>
       </c>
       <c r="R6">
-        <v>17.09720918824969</v>
+        <v>771.2767658693489</v>
       </c>
       <c r="S6">
-        <v>0.1376733114247267</v>
+        <v>0.5793115291008745</v>
       </c>
       <c r="T6">
-        <v>0.1376733114247267</v>
+        <v>0.5793115291008746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.8609312197462</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H7">
-        <v>10.8609312197462</v>
+        <v>156.811283</v>
       </c>
       <c r="I7">
-        <v>0.1478506591328401</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J7">
-        <v>0.1478506591328401</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.116370530967701</v>
+        <v>0.11665</v>
       </c>
       <c r="N7">
-        <v>0.116370530967701</v>
+        <v>0.34995</v>
       </c>
       <c r="O7">
-        <v>0.06883532185655901</v>
+        <v>0.06366462649994824</v>
       </c>
       <c r="P7">
-        <v>0.06883532185655901</v>
+        <v>0.06366462649994825</v>
       </c>
       <c r="Q7">
-        <v>1.263892332845546</v>
+        <v>6.097345387316667</v>
       </c>
       <c r="R7">
-        <v>1.263892332845546</v>
+        <v>54.87610848585</v>
       </c>
       <c r="S7">
-        <v>0.01017734770811345</v>
+        <v>0.04121783998278562</v>
       </c>
       <c r="T7">
-        <v>0.01017734770811345</v>
+        <v>0.04121783998278563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.87955133333333</v>
+      </c>
+      <c r="H8">
+        <v>32.638654</v>
+      </c>
+      <c r="I8">
+        <v>0.1347540930962685</v>
+      </c>
+      <c r="J8">
+        <v>0.1347540930962685</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07610666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.22832</v>
+      </c>
+      <c r="O8">
+        <v>0.04153709822108353</v>
+      </c>
+      <c r="P8">
+        <v>0.04153709822108354</v>
+      </c>
+      <c r="Q8">
+        <v>0.8280063868088889</v>
+      </c>
+      <c r="R8">
+        <v>7.452057481280002</v>
+      </c>
+      <c r="S8">
+        <v>0.005597294000632738</v>
+      </c>
+      <c r="T8">
+        <v>0.00559729400063274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.87955133333333</v>
+      </c>
+      <c r="H9">
+        <v>32.638654</v>
+      </c>
+      <c r="I9">
+        <v>0.1347540930962685</v>
+      </c>
+      <c r="J9">
+        <v>0.1347540930962685</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.639501</v>
+      </c>
+      <c r="N9">
+        <v>4.918502999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.8947982752789682</v>
+      </c>
+      <c r="P9">
+        <v>0.8947982752789683</v>
+      </c>
+      <c r="Q9">
+        <v>17.83703529055133</v>
+      </c>
+      <c r="R9">
+        <v>160.533317614962</v>
+      </c>
+      <c r="S9">
+        <v>0.1205777300893225</v>
+      </c>
+      <c r="T9">
+        <v>0.1205777300893226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.87955133333333</v>
+      </c>
+      <c r="H10">
+        <v>32.638654</v>
+      </c>
+      <c r="I10">
+        <v>0.1347540930962685</v>
+      </c>
+      <c r="J10">
+        <v>0.1347540930962685</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.11665</v>
+      </c>
+      <c r="N10">
+        <v>0.34995</v>
+      </c>
+      <c r="O10">
+        <v>0.06366462649994824</v>
+      </c>
+      <c r="P10">
+        <v>0.06366462649994825</v>
+      </c>
+      <c r="Q10">
+        <v>1.269099663033333</v>
+      </c>
+      <c r="R10">
+        <v>11.4218969673</v>
+      </c>
+      <c r="S10">
+        <v>0.008579069006313184</v>
+      </c>
+      <c r="T10">
+        <v>0.008579069006313188</v>
       </c>
     </row>
   </sheetData>
